--- a/swedish_words_practice.xlsx
+++ b/swedish_words_practice.xlsx
@@ -1,21 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Immig\Documents\Swedish_word_practice\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5CEF862-7801-4002-97DE-B4FA8C419398}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{CC09C0AB-0162-44A7-A625-25F8F369DDBA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5265" yWindow="2505" windowWidth="19845" windowHeight="12345" xr2:uid="{ED786363-E67E-4068-92C4-6748210F606A}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{ED786363-E67E-4068-92C4-6748210F606A}"/>
   </bookViews>
   <sheets>
-    <sheet name="food" sheetId="1" r:id="rId1"/>
+    <sheet name="nouns" sheetId="1" r:id="rId1"/>
+    <sheet name="verbs" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -35,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="217" uniqueCount="131">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="326" uniqueCount="231">
   <si>
     <t>kaffe</t>
   </si>
@@ -428,6 +430,306 @@
   </si>
   <si>
     <t>körsbäret</t>
+  </si>
+  <si>
+    <t>run</t>
+  </si>
+  <si>
+    <t>springa</t>
+  </si>
+  <si>
+    <t>sit</t>
+  </si>
+  <si>
+    <t>sitta</t>
+  </si>
+  <si>
+    <t>walk</t>
+  </si>
+  <si>
+    <t>gå</t>
+  </si>
+  <si>
+    <t>jump</t>
+  </si>
+  <si>
+    <t>hoppa</t>
+  </si>
+  <si>
+    <t>crawl</t>
+  </si>
+  <si>
+    <t>krypa</t>
+  </si>
+  <si>
+    <t>jog</t>
+  </si>
+  <si>
+    <t>jogga</t>
+  </si>
+  <si>
+    <t>sneak</t>
+  </si>
+  <si>
+    <t>smyga</t>
+  </si>
+  <si>
+    <t>stå</t>
+  </si>
+  <si>
+    <t>stand</t>
+  </si>
+  <si>
+    <t>reach</t>
+  </si>
+  <si>
+    <t>sträcka</t>
+  </si>
+  <si>
+    <t>hold</t>
+  </si>
+  <si>
+    <t>hålla</t>
+  </si>
+  <si>
+    <t>balance</t>
+  </si>
+  <si>
+    <t>balansera</t>
+  </si>
+  <si>
+    <t>nod</t>
+  </si>
+  <si>
+    <t>nicka</t>
+  </si>
+  <si>
+    <t>wave</t>
+  </si>
+  <si>
+    <t>vinka</t>
+  </si>
+  <si>
+    <t>point</t>
+  </si>
+  <si>
+    <t>peka</t>
+  </si>
+  <si>
+    <t>yawn</t>
+  </si>
+  <si>
+    <t>gäspa</t>
+  </si>
+  <si>
+    <t>scratch</t>
+  </si>
+  <si>
+    <t>klia</t>
+  </si>
+  <si>
+    <t>stare</t>
+  </si>
+  <si>
+    <t>stirra</t>
+  </si>
+  <si>
+    <t>shake</t>
+  </si>
+  <si>
+    <t>skaka</t>
+  </si>
+  <si>
+    <t>tremble</t>
+  </si>
+  <si>
+    <t>darra</t>
+  </si>
+  <si>
+    <t>squint</t>
+  </si>
+  <si>
+    <t>kisa</t>
+  </si>
+  <si>
+    <t>klappa</t>
+  </si>
+  <si>
+    <t>pet</t>
+  </si>
+  <si>
+    <t>duck</t>
+  </si>
+  <si>
+    <t>ducka</t>
+  </si>
+  <si>
+    <t>huka</t>
+  </si>
+  <si>
+    <t>crouch</t>
+  </si>
+  <si>
+    <t>climb</t>
+  </si>
+  <si>
+    <t>klättra</t>
+  </si>
+  <si>
+    <t>grasp</t>
+  </si>
+  <si>
+    <t>fatta</t>
+  </si>
+  <si>
+    <t>take</t>
+  </si>
+  <si>
+    <t>ta</t>
+  </si>
+  <si>
+    <t>grimace</t>
+  </si>
+  <si>
+    <t>grimasera</t>
+  </si>
+  <si>
+    <t>smile</t>
+  </si>
+  <si>
+    <t>le</t>
+  </si>
+  <si>
+    <t>pout</t>
+  </si>
+  <si>
+    <t>puta</t>
+  </si>
+  <si>
+    <t>slå</t>
+  </si>
+  <si>
+    <t>hit</t>
+  </si>
+  <si>
+    <t>squeeze</t>
+  </si>
+  <si>
+    <t>pressa</t>
+  </si>
+  <si>
+    <t>caress</t>
+  </si>
+  <si>
+    <t>smeka</t>
+  </si>
+  <si>
+    <t>think</t>
+  </si>
+  <si>
+    <t>tänka</t>
+  </si>
+  <si>
+    <t>wonder</t>
+  </si>
+  <si>
+    <t>undra</t>
+  </si>
+  <si>
+    <t>ask</t>
+  </si>
+  <si>
+    <t>fråga</t>
+  </si>
+  <si>
+    <t>laugh</t>
+  </si>
+  <si>
+    <t>skratta</t>
+  </si>
+  <si>
+    <t>love</t>
+  </si>
+  <si>
+    <t>älska</t>
+  </si>
+  <si>
+    <t>hate</t>
+  </si>
+  <si>
+    <t>hata</t>
+  </si>
+  <si>
+    <t>cry</t>
+  </si>
+  <si>
+    <t>gråta</t>
+  </si>
+  <si>
+    <t>feel</t>
+  </si>
+  <si>
+    <t>känna</t>
+  </si>
+  <si>
+    <t>yell</t>
+  </si>
+  <si>
+    <t>skrika</t>
+  </si>
+  <si>
+    <t>smell</t>
+  </si>
+  <si>
+    <t>lukta</t>
+  </si>
+  <si>
+    <t>talk</t>
+  </si>
+  <si>
+    <t>prata</t>
+  </si>
+  <si>
+    <t>whisper</t>
+  </si>
+  <si>
+    <t>viska</t>
+  </si>
+  <si>
+    <t>turn</t>
+  </si>
+  <si>
+    <t>vända</t>
+  </si>
+  <si>
+    <t>twist</t>
+  </si>
+  <si>
+    <t>vrida</t>
+  </si>
+  <si>
+    <t>reta</t>
+  </si>
+  <si>
+    <t>tease</t>
+  </si>
+  <si>
+    <t>fool</t>
+  </si>
+  <si>
+    <t>lura</t>
+  </si>
+  <si>
+    <t>play</t>
+  </si>
+  <si>
+    <t>leka</t>
+  </si>
+  <si>
+    <t>spin</t>
+  </si>
+  <si>
+    <t>snurra</t>
   </si>
 </sst>
 </file>
@@ -781,16 +1083,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EFAD7A2C-6D11-4A55-8086-6BC6AAEF7D7A}">
   <dimension ref="A1:G43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="F45" sqref="F45"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:G1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="3" max="3" width="9" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>119</v>
       </c>
@@ -813,7 +1115,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>59</v>
       </c>
@@ -830,7 +1132,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>59</v>
       </c>
@@ -847,7 +1149,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>59</v>
       </c>
@@ -864,7 +1166,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>59</v>
       </c>
@@ -881,7 +1183,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>59</v>
       </c>
@@ -898,7 +1200,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>59</v>
       </c>
@@ -915,7 +1217,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>59</v>
       </c>
@@ -932,7 +1234,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>59</v>
       </c>
@@ -949,7 +1251,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>59</v>
       </c>
@@ -966,7 +1268,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>59</v>
       </c>
@@ -983,7 +1285,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>59</v>
       </c>
@@ -1000,7 +1302,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>59</v>
       </c>
@@ -1017,7 +1319,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>59</v>
       </c>
@@ -1034,7 +1336,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>59</v>
       </c>
@@ -1051,7 +1353,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>59</v>
       </c>
@@ -1068,7 +1370,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>59</v>
       </c>
@@ -1085,7 +1387,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>59</v>
       </c>
@@ -1102,7 +1404,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>59</v>
       </c>
@@ -1119,7 +1421,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>59</v>
       </c>
@@ -1136,7 +1438,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>59</v>
       </c>
@@ -1153,7 +1455,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>59</v>
       </c>
@@ -1170,7 +1472,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>59</v>
       </c>
@@ -1187,7 +1489,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>59</v>
       </c>
@@ -1204,7 +1506,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>59</v>
       </c>
@@ -1221,7 +1523,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>59</v>
       </c>
@@ -1238,7 +1540,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>59</v>
       </c>
@@ -1255,7 +1557,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>59</v>
       </c>
@@ -1272,7 +1574,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>59</v>
       </c>
@@ -1289,7 +1591,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>59</v>
       </c>
@@ -1306,7 +1608,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>59</v>
       </c>
@@ -1323,7 +1625,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>59</v>
       </c>
@@ -1340,7 +1642,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>59</v>
       </c>
@@ -1357,7 +1659,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>59</v>
       </c>
@@ -1374,7 +1676,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>59</v>
       </c>
@@ -1391,7 +1693,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>59</v>
       </c>
@@ -1408,7 +1710,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>59</v>
       </c>
@@ -1425,7 +1727,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>59</v>
       </c>
@@ -1442,7 +1744,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>59</v>
       </c>
@@ -1459,7 +1761,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>59</v>
       </c>
@@ -1476,7 +1778,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>59</v>
       </c>
@@ -1493,7 +1795,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>59</v>
       </c>
@@ -1510,7 +1812,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>59</v>
       </c>
@@ -1525,6 +1827,452 @@
       </c>
       <c r="E43" t="s">
         <v>130</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{91E7FF0D-7945-4D8F-B21B-0636B30FD315}">
+  <dimension ref="A1:G52"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A30" workbookViewId="0">
+      <selection activeCell="J34" sqref="J34"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>119</v>
+      </c>
+      <c r="B1" t="s">
+        <v>114</v>
+      </c>
+      <c r="C1" t="s">
+        <v>115</v>
+      </c>
+      <c r="D1" t="s">
+        <v>116</v>
+      </c>
+      <c r="E1" t="s">
+        <v>117</v>
+      </c>
+      <c r="F1" t="s">
+        <v>126</v>
+      </c>
+      <c r="G1" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B2" t="s">
+        <v>131</v>
+      </c>
+      <c r="C2" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
+        <v>133</v>
+      </c>
+      <c r="C3" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
+        <v>135</v>
+      </c>
+      <c r="C4" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
+        <v>137</v>
+      </c>
+      <c r="C5" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B6" t="s">
+        <v>139</v>
+      </c>
+      <c r="C6" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B7" t="s">
+        <v>141</v>
+      </c>
+      <c r="C7" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B8" t="s">
+        <v>143</v>
+      </c>
+      <c r="C8" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B9" t="s">
+        <v>146</v>
+      </c>
+      <c r="C9" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B10" t="s">
+        <v>147</v>
+      </c>
+      <c r="C10" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B11" t="s">
+        <v>149</v>
+      </c>
+      <c r="C11" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B12" t="s">
+        <v>151</v>
+      </c>
+      <c r="C12" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B13" t="s">
+        <v>153</v>
+      </c>
+      <c r="C13" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B14" t="s">
+        <v>155</v>
+      </c>
+      <c r="C14" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B15" t="s">
+        <v>157</v>
+      </c>
+      <c r="C15" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B16" t="s">
+        <v>159</v>
+      </c>
+      <c r="C16" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="17" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B17" t="s">
+        <v>161</v>
+      </c>
+      <c r="C17" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="18" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B18" t="s">
+        <v>163</v>
+      </c>
+      <c r="C18" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="19" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B19" t="s">
+        <v>165</v>
+      </c>
+      <c r="C19" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="20" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B20" t="s">
+        <v>167</v>
+      </c>
+      <c r="C20" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="21" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B21" t="s">
+        <v>169</v>
+      </c>
+      <c r="C21" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="22" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B22" t="s">
+        <v>173</v>
+      </c>
+      <c r="C22" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="23" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B23" t="s">
+        <v>176</v>
+      </c>
+      <c r="C23" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="24" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B24" t="s">
+        <v>177</v>
+      </c>
+      <c r="C24" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="25" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B25" t="s">
+        <v>179</v>
+      </c>
+      <c r="C25" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="26" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B26" t="s">
+        <v>149</v>
+      </c>
+      <c r="C26" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="27" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B27" t="s">
+        <v>181</v>
+      </c>
+      <c r="C27" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="28" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B28" t="s">
+        <v>183</v>
+      </c>
+      <c r="C28" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="29" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B29" t="s">
+        <v>185</v>
+      </c>
+      <c r="C29" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="30" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B30" t="s">
+        <v>187</v>
+      </c>
+      <c r="C30" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="31" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B31" t="s">
+        <v>190</v>
+      </c>
+      <c r="C31" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="32" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B32" t="s">
+        <v>191</v>
+      </c>
+      <c r="C32" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="33" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B33" t="s">
+        <v>193</v>
+      </c>
+      <c r="C33" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="34" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B34" t="s">
+        <v>172</v>
+      </c>
+      <c r="C34" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="35" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B35" t="s">
+        <v>195</v>
+      </c>
+      <c r="C35" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="36" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B36" t="s">
+        <v>197</v>
+      </c>
+      <c r="C36" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="37" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B37" t="s">
+        <v>199</v>
+      </c>
+      <c r="C37" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="38" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B38" t="s">
+        <v>201</v>
+      </c>
+      <c r="C38" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="39" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B39" t="s">
+        <v>203</v>
+      </c>
+      <c r="C39" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="40" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B40" t="s">
+        <v>205</v>
+      </c>
+      <c r="C40" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="41" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B41" t="s">
+        <v>207</v>
+      </c>
+      <c r="C41" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="42" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B42" t="s">
+        <v>209</v>
+      </c>
+      <c r="C42" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="43" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B43" t="s">
+        <v>211</v>
+      </c>
+      <c r="C43" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="44" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B44" t="s">
+        <v>213</v>
+      </c>
+      <c r="C44" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="45" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B45" t="s">
+        <v>215</v>
+      </c>
+      <c r="C45" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="46" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B46" t="s">
+        <v>217</v>
+      </c>
+      <c r="C46" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="47" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B47" t="s">
+        <v>219</v>
+      </c>
+      <c r="C47" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="48" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B48" t="s">
+        <v>221</v>
+      </c>
+      <c r="C48" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="49" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B49" t="s">
+        <v>224</v>
+      </c>
+      <c r="C49" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="50" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B50" t="s">
+        <v>225</v>
+      </c>
+      <c r="C50" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="51" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B51" t="s">
+        <v>227</v>
+      </c>
+      <c r="C51" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="52" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B52" t="s">
+        <v>229</v>
+      </c>
+      <c r="C52" t="s">
+        <v>230</v>
       </c>
     </row>
   </sheetData>
